--- a/misc/cv_files/new/data/cv_entries.xlsx
+++ b/misc/cv_files/new/data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherdishop/Desktop/anderson-cv/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherdishop/Desktop/website/misc/cv_files/new/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776C6147-9733-AB4E-8423-3005D12BC824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945AE32-EDD7-F04B-A836-1AA7982C3E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17600" yWindow="1760" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -243,13 +243,13 @@
     <t>Some School Hopefully</t>
   </si>
   <si>
-    <t>**PhD** in Organizational Psychology</t>
-  </si>
-  <si>
-    <t>**MA** in Organizational Psychology</t>
-  </si>
-  <si>
-    <t>**BA** in Behavioral Neuroscience</t>
+    <t>PhD in Organizational Psychology</t>
+  </si>
+  <si>
+    <t>MA in Organizational Psychology</t>
+  </si>
+  <si>
+    <t>BA in Behavioral Neuroscience</t>
   </si>
 </sst>
 </file>
